--- a/biology/Médecine/Fernand_Delisle/Fernand_Delisle.xlsx
+++ b/biology/Médecine/Fernand_Delisle/Fernand_Delisle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fernand Delisle, né le 22 mai 1848 à Lombez et mort le 1er mars 1911 à Vitry-sur-Seine[1], est un médecin et anthropologue français. Il a notamment réalisé des centaines de photographies de « types humains » dans le cadre de ses activités au Laboratoire d'anthropologie du Muséum national d'histoire naturelle de Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fernand Delisle, né le 22 mai 1848 à Lombez et mort le 1er mars 1911 à Vitry-sur-Seine, est un médecin et anthropologue français. Il a notamment réalisé des centaines de photographies de « types humains » dans le cadre de ses activités au Laboratoire d'anthropologie du Muséum national d'histoire naturelle de Paris.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève au Laboratoire d'anthropologie du Muséum d'histoire naturelle de Paris, puis préparateur dans cette même institution, Fernand Delisle obtient son doctorat en médecine en 1880. Sa thèse porte sur les déformations artificielles du crâne.
 Membre actif de la Société de géographie depuis 1883 et de celle d'anthropologie au moins depuis cette même année il publie énormément d'articles sur des sujets se rapportant à la craniologie humaine ou animale. Il s'intéresse autant à ses contemporains qu'aux ossements préhistoriques.
